--- a/src/product_list.xlsx
+++ b/src/product_list.xlsx
@@ -1,59 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="7620" activeTab="1"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
-  <si>
-    <t>product_code</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>special-cotton-shirt-for-men</t>
-  </si>
-  <si>
-    <t>cotton-o-neck-mens-clothing-t-shirts</t>
-  </si>
-  <si>
-    <t>running-sneaker</t>
-  </si>
-  <si>
-    <t>heart-rate-monitor-gps-fitness-smartwatch</t>
-  </si>
-  <si>
-    <t>men-shoes-tmasw</t>
-  </si>
-  <si>
-    <t>men-shoes</t>
-  </si>
-  <si>
-    <t>iphone-13-pro-black-color-512gb-storage</t>
-  </si>
-  <si>
-    <t>sceptre-led-curved-2xhdmi-display-port-monitor</t>
-  </si>
-  <si>
-    <t>premium-leather-matt-black-casual-boot</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -418,67 +400,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>product_code</v>
+      </c>
+      <c r="B1" t="str">
+        <v>price</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>special-cotton-shirt-for-men</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>cotton-o-neck-mens-clothing-t-shirts</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>running-sneaker</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>heart-rate-monitor-gps-fitness-smartwatch</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>men-shoes-tmasw</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>men-shoes</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>iphone-13-pro-black-color-512gb-storage</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>sceptre-led-curved-2xhdmi-display-port-monitor</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>premium-leather-matt-black-casual-boot</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -487,99 +468,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>product_code</v>
+      </c>
+      <c r="B1" t="str">
+        <v>price</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>heart-rate-monitor-gps-fitness-smartwatch</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>special-cotton-shirt-for-men</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>men-shoes-tmasw</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" t="s">
-        <v>5</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>sceptre-led-curved-2xhdmi-display-port-monitor</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>men-shoes</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" t="s">
-        <v>7</v>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>running-sneaker</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" t="s">
-        <v>8</v>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>iphone-13-pro-black-color-512gb-storage</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" t="s">
-        <v>9</v>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>premium-leather-matt-black-casual-boot</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" t="s">
-        <v>10</v>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>cotton-o-neck-mens-clothing-t-shirts</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
   </ignoredErrors>
 </worksheet>
 </file>